--- a/学习笔记/opc压力测试结果统计.xlsx
+++ b/学习笔记/opc压力测试结果统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="文档简介" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
   <si>
     <t>同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寻找相应点下读取时间约等于2秒的最小线程数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程数\总点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,103 +345,292 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1323ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1723ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3090ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3831ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4685ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9117ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15163ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2449ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3209ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3540ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6311ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12537ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28053ms</t>
+  </si>
+  <si>
+    <t>2351ms</t>
+  </si>
+  <si>
+    <t>2797ms</t>
+  </si>
+  <si>
+    <t>3333ms</t>
+  </si>
+  <si>
+    <t>5358ms</t>
+  </si>
+  <si>
+    <t>9096ms</t>
+  </si>
+  <si>
+    <t>16761ms</t>
+  </si>
+  <si>
+    <t>2276ms</t>
+  </si>
+  <si>
+    <t>2617ms</t>
+  </si>
+  <si>
+    <t>3050ms</t>
+  </si>
+  <si>
+    <t>4924ms</t>
+  </si>
+  <si>
+    <t>8363ms</t>
+  </si>
+  <si>
+    <t>19435ms</t>
+  </si>
+  <si>
+    <t>3257ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3097ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5220ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8310ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11413ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20758ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29260ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2441ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2864ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3146ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3736ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6144ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8051ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16638ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23878ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39193ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7852ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10991ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13267ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17678ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24045ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找相应点下读取时间最小的相应线程数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步单线程下测试，最多可以Hold到4000个点，大于这个值之后，测试会不时出现
+（java.io.IOException: Unable to assemble PDU fragments.）异常（未确认是客户端还是服务端异常），
+当线程上升到50个，即总点数为20W的情况下，可以在7s之内全部读取完毕。
+当线程上升到100个，即总点数为40W的情况下，可以在15s之内全部读取完毕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7555ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8919ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13053ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同于异步，当单线程下测试，点数大于4000时，会出现Unable to assemble PDU fragments异常。
+(20个线程*4000点=8W点)*2(Day)*24(Hour)运行，未出现任何异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16910ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6606ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6970ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7069ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14108ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8989ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12819ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16016ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19722ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23401ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8896ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10843ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12748ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15650ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8074ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>单线程下最多可以Hold到20w个点，大于这个数值之后，多次读取会导致程序崩溃（暂时没有测试是客户端的原因还是服务端），
-多线程下。最大测试到40W个点，没有出现任何问题，最快可以在小于3s的情况下全部读取完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1323ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1723ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3090ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3831ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4685ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9117ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15163ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2449ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3209ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3540ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6311ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12537ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28053ms</t>
-  </si>
-  <si>
-    <t>2351ms</t>
-  </si>
-  <si>
-    <t>2797ms</t>
-  </si>
-  <si>
-    <t>3333ms</t>
-  </si>
-  <si>
-    <t>5358ms</t>
-  </si>
-  <si>
-    <t>9096ms</t>
-  </si>
-  <si>
-    <t>16761ms</t>
-  </si>
-  <si>
-    <t>2276ms</t>
-  </si>
-  <si>
-    <t>2617ms</t>
-  </si>
-  <si>
-    <t>3050ms</t>
-  </si>
-  <si>
-    <t>4924ms</t>
-  </si>
-  <si>
-    <t>8363ms</t>
-  </si>
-  <si>
-    <t>19435ms</t>
+多线程下。最大测试到40W个点，在线程上升到7个之后，没有出现任何问题。
+需要注意的是，在理想情况下线程的起停事件会对读取时间有影响，而在生产环境，由于业务逻辑处理事件的引入，线程起停事件的影响可以忽略不计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10050ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11835ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13035ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +678,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +735,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -545,7 +750,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,8 +760,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,148 +783,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -771,7 +921,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1050,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1061,169 +1211,169 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7" ht="82.5" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" s="12" customFormat="1" ht="8.25" customHeight="1"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" s="26" customFormat="1" ht="8.25" customHeight="1"/>
     <row r="12" spans="2:7">
       <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:7" ht="13.5" customHeight="1">
       <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:7" s="12" customFormat="1" ht="6.75" customHeight="1"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" s="26" customFormat="1" ht="6.75" customHeight="1"/>
     <row r="16" spans="2:7">
       <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="3:7" ht="43.5" customHeight="1">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="3:7" ht="28.5" customHeight="1"/>
     <row r="19" spans="3:7" ht="28.5" customHeight="1">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="21" spans="3:7" ht="13.5" customHeight="1"/>
     <row r="22" spans="3:7" ht="15" customHeight="1"/>
     <row r="23" spans="3:7">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="25"/>
       <c r="E23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="27" spans="3:7" ht="41.25" customHeight="1">
-      <c r="C27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1252,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1262,342 +1412,444 @@
     <col min="2" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="K4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="21">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>86</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G6" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="1" t="s">
+      <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>90</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>91</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G7" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="1" t="s">
+      <c r="H7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="G8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="21">
-        <v>5</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" t="s">
+      <c r="H8" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="21">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="21">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="21">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="J13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="21">
+      <c r="A14" s="13">
         <v>15</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="21">
+      <c r="A15" s="13">
         <v>20</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="20" spans="4:14" ht="13.5" customHeight="1">
-      <c r="D20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="4:14">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="4:14" ht="35.25" customHeight="1">
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="13">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E1:K2"/>
-    <mergeCell ref="D20:N22"/>
     <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A20:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,7 +1862,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1623,218 +1875,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="29">
         <v>4000</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29">
         <v>8000</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="21" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="21">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="17"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="21">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="18"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1842,337 +2094,337 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="21">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="17"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="21">
+      <c r="A8" s="13">
         <v>10</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="21">
+      <c r="A9" s="13">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="17"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>20</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="19" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="17"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <v>30</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="19" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="17"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="21">
+      <c r="A12" s="13">
         <v>40</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="17"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="21">
+      <c r="A13" s="13">
         <v>50</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="19" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="17"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="21">
+      <c r="A14" s="13">
         <v>75</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="19" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="17"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="21">
+      <c r="A15" s="13">
         <v>100</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="13" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="17" t="s">
+      <c r="W15" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="34.5" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="A19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
     </row>
     <row r="20" spans="1:24" ht="42" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
     </row>
     <row r="23" spans="1:24">
       <c r="W23" s="2"/>
@@ -2228,7 +2480,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2278,243 +2530,243 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="29.25" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="41.25" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="2"/>
     </row>
   </sheetData>
@@ -2533,7 +2785,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
